--- a/biology/Botanique/Beurré_d'Hardenpont/Beurré_d'Hardenpont.xlsx
+++ b/biology/Botanique/Beurré_d'Hardenpont/Beurré_d'Hardenpont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Hardenpont</t>
+          <t>Beurré_d'Hardenpont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ’Beurré d'Hardenpont est une variété de poire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ’Beurré d'Hardenpont est une variété de poire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Hardenpont</t>
+          <t>Beurré_d'Hardenpont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poire Beurré d'Ardenpont.
 Beurré de Cambron.
@@ -522,7 +536,7 @@
 Beurré d'Hardenpont Belge.
 Beurré de Kent.
 Beurré Lombard.
-Beurré d'Arenberg[2],[3].</t>
+Beurré d'Arenberg,.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Hardenpont</t>
+          <t>Beurré_d'Hardenpont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est obtenue, en 1759, par Nicolas Hardenpont, prêtre et pomologue, conseiller ecclésiastique à Mont Paniselle, près de Mons dans le Hainaut (Belgique)[4],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est obtenue, en 1759, par Nicolas Hardenpont, prêtre et pomologue, conseiller ecclésiastique à Mont Paniselle, près de Mons dans le Hainaut (Belgique),.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Hardenpont</t>
+          <t>Beurré_d'Hardenpont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rameaux : assez forts, droits, brun olivâtre, à reflets gris cendré, à très nombreuses lenticelles grises.
 Yeux. Moyens, courts, écartés du rameau.
@@ -589,7 +607,7 @@
 Elle devra être plantée au levant et au midi, comme dans la région parisienne, où, avec des traitements cupriques et l'ensachage, on pourra encore être assuré de la récolte, L'ensachage donne, avec cette variété, des fruits superbes et excellents.
 Taille normale et pincements courts répétés.
 Les traitements cupriques préventifs d'hiver et de printemps devront être appliqués avec soin à cette variété, même plantée en situation privilégiée.
-Fruit d'amateur et de commerce de luxe[5].
+Fruit d'amateur et de commerce de luxe.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_d%27Hardenpont</t>
+          <t>Beurré_d'Hardenpont</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Assez gros ou gros, oblong, ventru, bosselé, ayant la forme du coing du Portugal.
 Épiderme assez lisse, jaune pâle, parfois vert gris jaunâtre, pointillé de gris, lavé de fauve au sommet et à la base.
